--- a/WindowsForms/Template_/material TransferBack report.xlsx
+++ b/WindowsForms/Template_/material TransferBack report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word\Coding\WeeklyReport\WindowsForms\bin\Debug\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="12120" windowHeight="9000"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No.</t>
   </si>
@@ -64,46 +69,15 @@
   </si>
   <si>
     <t>Curr Cost</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>07050101000004</t>
-  </si>
-  <si>
-    <t>lubricant TEXU4533096,Mobil DTE832,208L/barrel</t>
-  </si>
-  <si>
-    <t>Barrel</t>
-  </si>
-  <si>
-    <t>151605</t>
-  </si>
-  <si>
-    <t>Power Plant</t>
-  </si>
-  <si>
-    <t>ADS05</t>
-  </si>
-  <si>
-    <t>705960</t>
-  </si>
-  <si>
-    <t>2015-09-08</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,28 +127,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,33 +169,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -368,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:P12"/>
+  <dimension ref="A7:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -688,61 +623,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15">
-        <v>3</v>
-      </c>
-      <c r="G8" s="15">
-        <v>990</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2970</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="15">
-        <v>990</v>
-      </c>
-      <c r="P8" s="15">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="H12" s="20">
-        <v>2970</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
